--- a/RTE/src/main/resources/RTE Job Creation ManyToMany.xlsx
+++ b/RTE/src/main/resources/RTE Job Creation ManyToMany.xlsx
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CA2" sqref="CA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1100,7 @@
         <v>121</v>
       </c>
       <c r="P2" s="2">
-        <v>44707</v>
+        <v>44729</v>
       </c>
       <c r="Q2" s="2">
         <v>53108</v>
@@ -1109,10 +1109,10 @@
         <v>83</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="T2" s="3">
-        <v>0.98958333333333337</v>
+        <v>0.28125</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>84</v>
@@ -1203,10 +1203,10 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="2">
-        <v>44707</v>
+        <v>44729</v>
       </c>
       <c r="CB2" s="3">
-        <v>0.98958333333333337</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="CC2" s="1">
         <v>0</v>

--- a/RTE/src/main/resources/RTE Job Creation ManyToMany.xlsx
+++ b/RTE/src/main/resources/RTE Job Creation ManyToMany.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:CE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2"/>
+      <selection activeCell="CD18" sqref="CD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1100,7 @@
         <v>121</v>
       </c>
       <c r="P2" s="2">
-        <v>44729</v>
+        <v>44734</v>
       </c>
       <c r="Q2" s="2">
         <v>53108</v>
@@ -1109,10 +1109,10 @@
         <v>83</v>
       </c>
       <c r="S2" s="3">
-        <v>0.29166666666666669</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="T2" s="3">
-        <v>0.28125</v>
+        <v>0.90625</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>84</v>
@@ -1203,10 +1203,10 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="2">
-        <v>44729</v>
+        <v>44734</v>
       </c>
       <c r="CB2" s="3">
-        <v>0.29166666666666669</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="CC2" s="1">
         <v>0</v>
